--- a/Documentation/temp.xlsx
+++ b/Documentation/temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.melveris\Personal files\CyberShock\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mazzy\Unity\CyberShock\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7008E0-0473-408E-8EB8-784D2493BE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD4F78D-6C0A-4036-8305-7490EEAB388D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -431,82 +431,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -557,8 +557,8 @@
       <c r="B24" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B5">
-    <sortCondition ref="A1:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B11">
+    <sortCondition ref="A1:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
